--- a/sources/case/LeaveTypes.xlsx
+++ b/sources/case/LeaveTypes.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,7 +134,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
+    <t>$csv{data.Tenant.microfastup.tenant_id}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -626,14 +626,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
